--- a/T1/test.xlsx
+++ b/T1/test.xlsx
@@ -440,802 +440,811 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>66.99999999999974</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>-0.0013037037042686027 + 0.03819400354120578 x**1 -
+0.4825396826849832 x**2 + 3.434941799789729 x**3 -
+15.09024444746217 x**4 + 42.07479630303774 x**5 - 73.58879630567384 x**6 +
+76.52075044869544 x**7 - 41.45211587650403 x**8 + 6.246317460972939 x**9 +
+6.000000000000381 x**10</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.898989898989899</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="B3" t="n">
-        <v>53.01087194949868</v>
+        <v>6.219128839191377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.797979797979798</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="B4" t="n">
-        <v>41.55710736981182</v>
+        <v>6.279632625694999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.696969696969697</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="B5" t="n">
-        <v>32.25220838621637</v>
+        <v>6.225365725807987</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.595959595959596</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="B6" t="n">
-        <v>24.7582429682348</v>
+        <v>6.091642305196533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.494949494949495</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="B7" t="n">
-        <v>18.78095200816653</v>
+        <v>5.906490516696835</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.393939393939394</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="B8" t="n">
-        <v>14.06523956412648</v>
+        <v>5.691766144359272</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.292929292929293</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="B9" t="n">
-        <v>10.39102426339306</v>
+        <v>5.464137517877415</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-2.191919191919192</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="B10" t="n">
-        <v>7.569430689247195</v>
+        <v>5.235952802187707</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.090909090909091</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="B11" t="n">
-        <v>5.439300386498684</v>
+        <v>5.01600008500358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.98989898989899</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="B12" t="n">
-        <v>3.864002917597127</v>
+        <v>4.810170029848823</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.888888888888889</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="B13" t="n">
-        <v>2.728528182599752</v>
+        <v>4.622030233268111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.787878787878788</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="B14" t="n">
-        <v>1.936841982323322</v>
+        <v>4.453319821807503</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.686868686868687</v>
+        <v>0.6565656565656566</v>
       </c>
       <c r="B15" t="n">
-        <v>1.4094875547265</v>
+        <v>4.304372246562688</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.585858585858586</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="B16" t="n">
-        <v>1.081416549971815</v>
+        <v>4.174473680077602</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.484848484848485</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9000336296890672</v>
+        <v>4.062163891629782</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.383838383838384</v>
+        <v>0.8080808080808081</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8234395807109872</v>
+        <v>3.965485971950473</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1.282828282828283</v>
+        <v>0.8585858585858586</v>
       </c>
       <c r="B19" t="n">
-        <v>0.818858522974375</v>
+        <v>3.882190796686251</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-1.181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8612354653799685</v>
+        <v>3.809901658904104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.080808080808081</v>
+        <v>0.9595959595959596</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9319911221732294</v>
+        <v>3.746244064162432</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.9797979797979797</v>
+        <v>1.01010101010101</v>
       </c>
       <c r="B22" t="n">
-        <v>1.017921545859187</v>
+        <v>3.688945266605551</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.8787878787878789</v>
+        <v>1.060606060606061</v>
       </c>
       <c r="B23" t="n">
-        <v>1.110230760783045</v>
+        <v>3.635907730678326</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.7777777777777777</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="B24" t="n">
-        <v>1.203685194306401</v>
+        <v>3.585260329889222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.6767676767676769</v>
+        <v>1.161616161616162</v>
       </c>
       <c r="B25" t="n">
-        <v>1.295879299979125</v>
+        <v>3.535390741064142</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.5757575757575757</v>
+        <v>1.212121212121212</v>
       </c>
       <c r="B26" t="n">
-        <v>1.386602349252658</v>
+        <v>3.484962159218413</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.4747474747474749</v>
+        <v>1.262626262626263</v>
       </c>
       <c r="B27" t="n">
-        <v>1.477296935100686</v>
+        <v>3.432917144019787</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.3737373737373737</v>
+        <v>1.313131313131313</v>
       </c>
       <c r="B28" t="n">
-        <v>1.570600282407857</v>
+        <v>3.378471113310512</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.2727272727272729</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="B29" t="n">
-        <v>1.66995999615668</v>
+        <v>3.321097721789962</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.1717171717171717</v>
+        <v>1.414141414141414</v>
       </c>
       <c r="B30" t="n">
-        <v>1.779316399286724</v>
+        <v>3.260508103221138</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.07070707070707094</v>
+        <v>1.464646464646465</v>
       </c>
       <c r="B31" t="n">
-        <v>1.902844117619008</v>
+        <v>3.196625711902721</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.03030303030303028</v>
+        <v>1.515151515151515</v>
       </c>
       <c r="B32" t="n">
-        <v>2.044746059431374</v>
+        <v>3.129558273133067</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.131313131313131</v>
+        <v>1.565656565656566</v>
       </c>
       <c r="B33" t="n">
-        <v>2.209093412139103</v>
+        <v>3.059568142472613</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2323232323232323</v>
+        <v>1.616161616161616</v>
       </c>
       <c r="B34" t="n">
-        <v>2.399705738076938</v>
+        <v>2.987042179275476</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.3333333333333335</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="B35" t="n">
-        <v>2.620065695596188</v>
+        <v>2.912462060699117</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.4343434343434343</v>
+        <v>1.717171717171717</v>
       </c>
       <c r="B36" t="n">
-        <v>2.873263340582172</v>
+        <v>2.836375797701817</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.5353535353535355</v>
+        <v>1.767676767676768</v>
       </c>
       <c r="B37" t="n">
-        <v>3.161965377063648</v>
+        <v>2.759371063890281</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.6363636363636362</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="B38" t="n">
-        <v>3.48840512382681</v>
+        <v>2.682050810973651</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.7373737373737375</v>
+        <v>1.868686868686869</v>
       </c>
       <c r="B39" t="n">
-        <v>3.85438934686216</v>
+        <v>2.605011520504064</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8383838383838382</v>
+        <v>1.919191919191919</v>
       </c>
       <c r="B40" t="n">
-        <v>4.261318475062518</v>
+        <v>2.528824330027368</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9393939393939394</v>
+        <v>1.96969696969697</v>
       </c>
       <c r="B41" t="n">
-        <v>4.710217068855664</v>
+        <v>2.454019172219542</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.040404040404041</v>
+        <v>2.02020202020202</v>
       </c>
       <c r="B42" t="n">
-        <v>5.201771748394044</v>
+        <v>2.381071977533871</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.141414141414141</v>
+        <v>2.07070707070707</v>
       </c>
       <c r="B43" t="n">
-        <v>5.736374109538569</v>
+        <v>2.310394913820482</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.242424242424242</v>
+        <v>2.121212121212121</v>
       </c>
       <c r="B44" t="n">
-        <v>6.314166462161817</v>
+        <v>2.24232956979222</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.343434343434343</v>
+        <v>2.171717171717172</v>
       </c>
       <c r="B45" t="n">
-        <v>6.935088516259474</v>
+        <v>2.177142932588432</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.444444444444445</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="B46" t="n">
-        <v>7.598923416996716</v>
+        <v>2.115025962520126</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.545454545454545</v>
+        <v>2.272727272727272</v>
       </c>
       <c r="B47" t="n">
-        <v>8.305341790128795</v>
+        <v>2.056094529855286</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.646464646464646</v>
+        <v>2.323232323232323</v>
       </c>
       <c r="B48" t="n">
-        <v>9.05394270422215</v>
+        <v>2.000392448711096</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.747474747474747</v>
+        <v>2.373737373737374</v>
       </c>
       <c r="B49" t="n">
-        <v>9.844290685764411</v>
+        <v>1.947896321249525</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.848484848484849</v>
+        <v>2.424242424242424</v>
       </c>
       <c r="B50" t="n">
-        <v>10.6759481375877</v>
+        <v>1.898521890913308</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.94949494949495</v>
+        <v>2.474747474747475</v>
       </c>
       <c r="B51" t="n">
-        <v>11.54850271004099</v>
+        <v>1.852131595880154</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.05050505050505</v>
+        <v>2.525252525252525</v>
       </c>
       <c r="B52" t="n">
-        <v>12.46158935803271</v>
+        <v>1.808543012742801</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.151515151515151</v>
+        <v>2.575757575757576</v>
       </c>
       <c r="B53" t="n">
-        <v>13.41490698542518</v>
+        <v>1.767537885130946</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.252525252525253</v>
+        <v>2.626262626262626</v>
       </c>
       <c r="B54" t="n">
-        <v>14.40822973129716</v>
+        <v>1.728871442066855</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2.353535353535354</v>
+        <v>2.676767676767677</v>
       </c>
       <c r="B55" t="n">
-        <v>15.44141309030047</v>
+        <v>1.69228172577896</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2.454545454545454</v>
+        <v>2.727272727272727</v>
       </c>
       <c r="B56" t="n">
-        <v>16.51439518172077</v>
+        <v>1.657498667976175</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.555555555555555</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="B57" t="n">
-        <v>17.62719358891103</v>
+        <v>1.624252676698922</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.656565656565657</v>
+        <v>2.828282828282828</v>
       </c>
       <c r="B58" t="n">
-        <v>18.77989828250008</v>
+        <v>1.59228252230042</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.757575757575758</v>
+        <v>2.878787878787879</v>
       </c>
       <c r="B59" t="n">
-        <v>19.97266121718588</v>
+        <v>1.5613423403626</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.858585858585858</v>
+        <v>2.929292929292929</v>
       </c>
       <c r="B60" t="n">
-        <v>21.20568325300667</v>
+        <v>1.531207600904191</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.959595959595959</v>
+        <v>2.97979797979798</v>
       </c>
       <c r="B61" t="n">
-        <v>22.47919909773949</v>
+        <v>1.501679926583483</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3.060606060606061</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="B62" t="n">
-        <v>23.7934609975079</v>
+        <v>1.472590677223828</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3.161616161616162</v>
+        <v>3.080808080808081</v>
       </c>
       <c r="B63" t="n">
-        <v>25.14872191778694</v>
+        <v>1.443803253385534</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.262626262626262</v>
+        <v>3.131313131313131</v>
       </c>
       <c r="B64" t="n">
-        <v>26.54521895677485</v>
+        <v>1.415214107362421</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>3.363636363636363</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="B65" t="n">
-        <v>27.983157717556</v>
+        <v>1.386752485384121</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3.464646464646465</v>
+        <v>3.232323232323232</v>
       </c>
       <c r="B66" t="n">
-        <v>29.46269833461043</v>
+        <v>1.35837895944549</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.565656565656566</v>
+        <v>3.282828282828283</v>
       </c>
       <c r="B67" t="n">
-        <v>30.98394380403037</v>
+        <v>1.330082840551201</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="B68" t="n">
-        <v>32.54693120528275</v>
+        <v>1.30187859674608</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>3.767676767676767</v>
+        <v>3.383838383838384</v>
       </c>
       <c r="B69" t="n">
-        <v>34.15162632551233</v>
+        <v>1.273801428589001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.868686868686869</v>
+        <v>3.434343434343434</v>
       </c>
       <c r="B70" t="n">
-        <v>35.79792210520741</v>
+        <v>1.24590218120948</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3.96969696969697</v>
+        <v>3.484848484848485</v>
       </c>
       <c r="B71" t="n">
-        <v>37.48564121655434</v>
+        <v>1.218241795250505</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>4.070707070707071</v>
+        <v>3.535353535353535</v>
       </c>
       <c r="B72" t="n">
-        <v>39.21454296298488</v>
+        <v>1.190885518337898</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4.171717171717171</v>
+        <v>3.585858585858586</v>
       </c>
       <c r="B73" t="n">
-        <v>40.9843345502731</v>
+        <v>1.163897113714709</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4.272727272727272</v>
+        <v>3.636363636363636</v>
       </c>
       <c r="B74" t="n">
-        <v>42.79468662606561</v>
+        <v>1.13733331282793</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>4.373737373737374</v>
+        <v>3.686868686868687</v>
       </c>
       <c r="B75" t="n">
-        <v>44.64525281593076</v>
+        <v>1.1112387634434</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4.474747474747475</v>
+        <v>3.737373737373737</v>
       </c>
       <c r="B76" t="n">
-        <v>46.53569279988952</v>
+        <v>1.085641723782272</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>4.575757575757575</v>
+        <v>3.787878787878788</v>
       </c>
       <c r="B77" t="n">
-        <v>48.46569827394094</v>
+        <v>1.060550745707958</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>4.676767676767676</v>
+        <v>3.838383838383838</v>
       </c>
       <c r="B78" t="n">
-        <v>50.43502092632176</v>
+        <v>1.035952575635303</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>4.777777777777778</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="B79" t="n">
-        <v>52.44350132813898</v>
+        <v>1.011811480072852</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4.878787878787879</v>
+        <v>3.939393939393939</v>
       </c>
       <c r="B80" t="n">
-        <v>54.4910973925906</v>
+        <v>0.9880701730338454</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4.979797979797979</v>
+        <v>3.98989898989899</v>
       </c>
       <c r="B81" t="n">
-        <v>56.57791079623802</v>
+        <v>0.9646524844509493</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5.080808080808081</v>
+        <v>4.040404040404041</v>
       </c>
       <c r="B82" t="n">
-        <v>58.70420947971834</v>
+        <v>0.9414678616929504</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5.181818181818182</v>
+        <v>4.090909090909091</v>
       </c>
       <c r="B83" t="n">
-        <v>60.87044405388379</v>
+        <v>0.9184177397979437</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5.282828282828282</v>
+        <v>4.141414141414141</v>
       </c>
       <c r="B84" t="n">
-        <v>63.07725563062898</v>
+        <v>0.8954037495958637</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5.383838383838384</v>
+        <v>4.191919191919192</v>
       </c>
       <c r="B85" t="n">
-        <v>65.32547227561366</v>
+        <v>0.8723376559829593</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5.484848484848484</v>
+        <v>4.242424242424242</v>
       </c>
       <c r="B86" t="n">
-        <v>67.61609094271334</v>
+        <v>0.8491528307209297</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5.585858585858587</v>
+        <v>4.292929292929293</v>
       </c>
       <c r="B87" t="n">
-        <v>69.95024139732537</v>
+        <v>0.8258169647532577</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5.686868686868687</v>
+        <v>4.343434343434343</v>
       </c>
       <c r="B88" t="n">
-        <v>72.32912826763166</v>
+        <v>0.8023456136497289</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5.787878787878787</v>
+        <v>4.393939393939394</v>
       </c>
       <c r="B89" t="n">
-        <v>74.75394697956439</v>
+        <v>0.7788160458966796</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5.888888888888889</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="B90" t="n">
-        <v>77.22576893254326</v>
+        <v>0.7553807268339734</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5.98989898989899</v>
+        <v>4.494949494949495</v>
       </c>
       <c r="B91" t="n">
-        <v>79.74539085904792</v>
+        <v>0.7322796205895098</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6.09090909090909</v>
+        <v>4.545454545454545</v>
       </c>
       <c r="B92" t="n">
-        <v>82.31314288176037</v>
+        <v>0.7098503278671759</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6.191919191919192</v>
+        <v>4.595959595959596</v>
       </c>
       <c r="B93" t="n">
-        <v>84.92864933735601</v>
+        <v>0.6885348983938684</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>6.292929292929292</v>
+        <v>4.646464646464646</v>
       </c>
       <c r="B94" t="n">
-        <v>87.59053597604252</v>
+        <v>0.6688819627145549</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>6.393939393939394</v>
+        <v>4.696969696969697</v>
       </c>
       <c r="B95" t="n">
-        <v>90.2960766706404</v>
+        <v>0.6515426183306096</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6.494949494949495</v>
+        <v>4.747474747474747</v>
       </c>
       <c r="B96" t="n">
-        <v>93.04077227836592</v>
+        <v>0.637258279394714</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>6.595959595959595</v>
+        <v>4.797979797979798</v>
       </c>
       <c r="B97" t="n">
-        <v>95.81785379252362</v>
+        <v>0.6268384567952965</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>6.696969696969697</v>
+        <v>4.848484848484849</v>
       </c>
       <c r="B98" t="n">
-        <v>98.61770140003057</v>
+        <v>0.6211261759728263</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>6.797979797979798</v>
+        <v>4.898989898989899</v>
       </c>
       <c r="B99" t="n">
-        <v>101.4271705240897</v>
+        <v>0.6209484626994197</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>6.8989898989899</v>
+        <v>4.94949494949495</v>
       </c>
       <c r="B100" t="n">
-        <v>104.228815379396</v>
+        <v>0.6270490318115214</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B101" t="n">
-        <v>107</v>
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>

--- a/T1/test.xlsx
+++ b/T1/test.xlsx
@@ -447,11 +447,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.0013037037042686027 + 0.03819400354120578 x**1 -
-0.4825396826849832 x**2 + 3.434941799789729 x**3 -
-15.09024444746217 x**4 + 42.07479630303774 x**5 - 73.58879630567384 x**6 +
-76.52075044869544 x**7 - 41.45211587650403 x**8 + 6.246317460972939 x**9 +
-6.000000000000381 x**10</t>
+          <t>-0.0013037037032453652 + 0.038194003516085574 x**1 -
+0.48253968242128487 x**2 + 3.434941798243592 x**3 -
+15.09024444191331 x**4 + 42.074796290477096 x**5 - 73.5887962878591 x**6 +
+76.52075043351839 x**7 - 41.45211586946449 x**8 + 6.246317459586915 x**9 +
+6.000000000008939 x**10</t>
         </is>
       </c>
     </row>
